--- a/docs/StructureDefinition-location.xlsx
+++ b/docs/StructureDefinition-location.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/location</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/location</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCoreLocation</t>
+    <t>SehatukCoreLocation</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Location </t>
+    <t xml:space="preserve">SehatukCore  Location </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Location Profile</t>
+    <t>SehatukCore Location Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -240,10 +240,6 @@
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>.Role[classCode=SDLC]</t>
   </si>
   <si>
@@ -254,47 +250,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Location.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -347,10 +347,6 @@
     <t>Location.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -881,7 +877,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/organization)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/organization)
 </t>
   </si>
   <si>
@@ -923,6 +919,10 @@
   <si>
     <t xml:space="preserve">ref-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-relative-reference:Reference should be a relative reference within message bundle using existing entry.fullUrl {Bundle.type='message' implies matches('((http|https)://([A-Za-z0-9-.:%$]*/)+)(Account|ActivityDefinition|AdverseEvent|AllergyIntolerance|Appointment|AppointmentResponse|AuditEvent|Basic|Binary|BiologicallyDerivedProduct|BodyStructure|Bundle|CapabilityStatement|CarePlan|CareTeam|CatalogEntry|ChargeItem|ChargeItemDefinition|Claim|ClaimResponse|ClinicalImpression|CodeSystem|Communication|CommunicationRequest|CompartmentDefinition|Composition|ConceptMap|Condition|Consent|Contract|Coverage|CoverageEligibilityRequest|CoverageEligibilityResponse|DetectedIssue|Device|DeviceDefinition|DeviceMetric|DeviceRequest|DeviceUseStatement|DiagnosticReport|DocumentManifest|DocumentReference|EffectEvidenceSynthesis|Encounter|Endpoint|EnrollmentRequest|EnrollmentResponse|EpisodeOfCare|EventDefinition|Evidence|EvidenceVariable|ExampleScenario|ExplanationOfBenefit|FamilyMemberHistory|Flag|Goal|GraphDefinition|Group|GuidanceResponse|HealthcareService|ImagingStudy|Immunization|ImmunizationEvaluation|ImmunizationRecommendation|ImplementationGuide|InsurancePlan|Invoice|Library|Linkage|List|Location|Measure|MeasureReport|Media|Medication|MedicationAdministration|MedicationDispense|MedicationKnowledge|MedicationRequest|MedicationStatement|MedicinalProduct|MedicinalProductAuthorization|MedicinalProductContraindication|MedicinalProductIndication|MedicinalProductIngredient|MedicinalProductInteraction|MedicinalProductManufactured|MedicinalProductPackaged|MedicinalProductPharmaceutical|MedicinalProductUndesirableEffect|MessageDefinition|MessageHeader|MolecularSequence|NamingSystem|NutritionOrder|Observation|ObservationDefinition|OperationDefinition|OperationOutcome|Organization|OrganizationAffiliation|Patient|PaymentNotice|PaymentReconciliation|Person|PlanDefinition|Practitioner|PractitionerRole|Procedure|Provenance|Questionnaire|QuestionnaireResponse|RelatedPerson|RequestGroup|ResearchDefinition|ResearchElementDefinition|ResearchStudy|ResearchSubject|RiskAssessment|RiskEvidenceSynthesis|Schedule|SearchParameter|ServiceRequest|Slot|Specimen|SpecimenDefinition|StructureDefinition|StructureMap|Subscription|Substance|SubstanceNucleicAcid|SubstancePolymer|SubstanceProtein|SubstanceReferenceInformation|SubstanceSourceMaterial|SubstanceSpecification|SupplyDelivery|SupplyRequest|Task|TerminologyCapabilities|TestReport|TestScript|ValueSet|VerificationResult|VisionPrescription)/[A-Za-z0-9-.]{1,64}(/_history/[A-Za-z0-9-.]{1,64})?')}</t>
   </si>
   <si>
     <t>Location.managingOrganization.type</t>
@@ -1550,15 +1550,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="47.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1569,24 +1569,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.43359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.4375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.85546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1796,10 +1796,10 @@
         <v>69</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>69</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1815,31 +1815,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1889,13 +1889,13 @@
         <v>69</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>69</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1920,28 +1920,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1992,19 +1992,19 @@
         <v>69</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>69</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2026,7 +2026,7 @@
         <v>70</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>69</v>
@@ -2038,7 +2038,7 @@
         <v>69</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>91</v>
@@ -2101,7 +2101,7 @@
         <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>69</v>
@@ -2234,28 +2234,28 @@
         <v>70</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2305,19 +2305,19 @@
         <v>69</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>69</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2339,28 +2339,28 @@
         <v>70</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2410,19 +2410,19 @@
         <v>69</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>69</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2444,28 +2444,28 @@
         <v>70</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2515,19 +2515,19 @@
         <v>69</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>69</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2546,31 +2546,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2620,7 +2620,7 @@
         <v>69</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>70</v>
@@ -2632,7 +2632,7 @@
         <v>69</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>69</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2663,19 +2663,19 @@
         <v>69</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2701,31 +2701,31 @@
         <v>69</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>70</v>
@@ -2737,7 +2737,7 @@
         <v>69</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>69</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2768,19 +2768,19 @@
         <v>69</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2806,31 +2806,31 @@
         <v>69</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>70</v>
@@ -2842,7 +2842,7 @@
         <v>69</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>69</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2864,28 +2864,28 @@
         <v>70</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2935,19 +2935,19 @@
         <v>69</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>69</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2969,7 +2969,7 @@
         <v>70</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>69</v>
@@ -2981,16 +2981,16 @@
         <v>69</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3016,43 +3016,43 @@
         <v>69</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>69</v>
@@ -3063,18 +3063,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>70</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>69</v>
@@ -3086,16 +3086,16 @@
         <v>69</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3145,22 +3145,22 @@
         <v>69</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>69</v>
@@ -3168,11 +3168,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3191,16 +3191,16 @@
         <v>69</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3250,7 +3250,7 @@
         <v>69</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>70</v>
@@ -3265,7 +3265,7 @@
         <v>69</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>69</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3302,7 +3302,7 @@
         <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>100</v>
@@ -3355,7 +3355,7 @@
         <v>69</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>70</v>
@@ -3370,7 +3370,7 @@
         <v>105</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>69</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3395,7 +3395,7 @@
         <v>69</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>69</v>
@@ -3404,16 +3404,16 @@
         <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>100</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>69</v>
@@ -3462,7 +3462,7 @@
         <v>69</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>70</v>
@@ -3477,7 +3477,7 @@
         <v>105</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>69</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3496,29 +3496,29 @@
         <v>70</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>69</v>
@@ -3567,7 +3567,7 @@
         <v>69</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>70</v>
@@ -3579,18 +3579,18 @@
         <v>69</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3598,28 +3598,28 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3646,54 +3646,54 @@
         <v>69</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3704,25 +3704,25 @@
         <v>70</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3749,14 +3749,14 @@
         <v>69</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>69</v>
       </c>
@@ -3773,30 +3773,30 @@
         <v>69</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3804,31 +3804,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3878,22 +3878,22 @@
         <v>69</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>69</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3924,19 +3924,19 @@
         <v>69</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>69</v>
@@ -3985,7 +3985,7 @@
         <v>69</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>70</v>
@@ -3997,10 +3997,10 @@
         <v>69</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>69</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4019,29 +4019,29 @@
         <v>70</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>69</v>
@@ -4090,22 +4090,22 @@
         <v>69</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>69</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4124,31 +4124,31 @@
         <v>70</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>69</v>
@@ -4173,54 +4173,54 @@
         <v>69</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4231,25 +4231,25 @@
         <v>70</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>69</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4276,11 +4276,11 @@
         <v>69</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>69</v>
@@ -4298,7 +4298,7 @@
         <v>69</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>70</v>
@@ -4310,18 +4310,18 @@
         <v>69</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4344,13 +4344,13 @@
         <v>69</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4401,7 +4401,7 @@
         <v>69</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>70</v>
@@ -4413,10 +4413,10 @@
         <v>69</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>69</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4435,7 +4435,7 @@
         <v>70</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>69</v>
@@ -4447,19 +4447,19 @@
         <v>69</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>69</v>
@@ -4508,22 +4508,22 @@
         <v>69</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>69</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4542,29 +4542,29 @@
         <v>70</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>69</v>
@@ -4589,54 +4589,54 @@
         <v>69</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4647,7 +4647,7 @@
         <v>70</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>69</v>
@@ -4659,17 +4659,17 @@
         <v>69</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>69</v>
@@ -4718,22 +4718,22 @@
         <v>69</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>69</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4752,7 +4752,7 @@
         <v>70</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>69</v>
@@ -4764,7 +4764,7 @@
         <v>69</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>91</v>
@@ -4827,7 +4827,7 @@
         <v>70</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>69</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4949,11 +4949,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4966,25 +4966,25 @@
         <v>69</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>100</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>69</v>
@@ -5033,7 +5033,7 @@
         <v>69</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>70</v>
@@ -5048,7 +5048,7 @@
         <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>69</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5064,10 +5064,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>69</v>
@@ -5079,13 +5079,13 @@
         <v>69</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5136,22 +5136,22 @@
         <v>69</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>69</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5167,10 +5167,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>69</v>
@@ -5182,13 +5182,13 @@
         <v>69</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5239,22 +5239,22 @@
         <v>69</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>69</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5273,7 +5273,7 @@
         <v>70</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>69</v>
@@ -5285,13 +5285,13 @@
         <v>69</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5342,22 +5342,22 @@
         <v>69</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>69</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5373,34 +5373,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="H37" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>69</v>
@@ -5449,22 +5449,22 @@
         <v>69</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>69</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5483,7 +5483,7 @@
         <v>70</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>69</v>
@@ -5495,7 +5495,7 @@
         <v>69</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>91</v>
@@ -5558,7 +5558,7 @@
         <v>70</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>69</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5680,7 +5680,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5691,28 +5691,28 @@
         <v>70</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5762,22 +5762,22 @@
         <v>69</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
+      <c r="AI40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AI40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="AJ40" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>69</v>
@@ -5796,19 +5796,19 @@
         <v>70</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>293</v>
@@ -5843,7 +5843,7 @@
         <v>69</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>296</v>
@@ -5873,16 +5873,16 @@
         <v>70</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>69</v>
@@ -5901,19 +5901,19 @@
         <v>70</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>300</v>
@@ -5978,13 +5978,13 @@
         <v>70</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>304</v>
@@ -6006,7 +6006,7 @@
         <v>70</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>69</v>
@@ -6018,7 +6018,7 @@
         <v>69</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>91</v>
@@ -6081,7 +6081,7 @@
         <v>70</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>69</v>
@@ -6214,19 +6214,19 @@
         <v>70</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>308</v>
@@ -6263,7 +6263,7 @@
         <v>69</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>312</v>
@@ -6293,13 +6293,13 @@
         <v>70</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>315</v>
@@ -6321,19 +6321,19 @@
         <v>70</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>317</v>
@@ -6370,7 +6370,7 @@
         <v>69</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -6398,13 +6398,13 @@
         <v>70</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>315</v>
@@ -6426,19 +6426,19 @@
         <v>70</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>324</v>
@@ -6505,13 +6505,13 @@
         <v>70</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>330</v>
@@ -6533,19 +6533,19 @@
         <v>70</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>332</v>
@@ -6610,13 +6610,13 @@
         <v>70</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>337</v>
@@ -6638,16 +6638,16 @@
         <v>70</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>339</v>
@@ -6713,13 +6713,13 @@
         <v>70</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>343</v>
@@ -6741,16 +6741,16 @@
         <v>70</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>345</v>
@@ -6818,13 +6818,13 @@
         <v>70</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>350</v>
@@ -6846,19 +6846,19 @@
         <v>70</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>352</v>
@@ -6923,16 +6923,16 @@
         <v>70</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>69</v>
@@ -6951,7 +6951,7 @@
         <v>70</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>69</v>
@@ -7028,13 +7028,13 @@
         <v>70</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>361</v>
@@ -7068,7 +7068,7 @@
         <v>69</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>363</v>
@@ -7139,7 +7139,7 @@
         <v>69</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>366</v>
@@ -7161,7 +7161,7 @@
         <v>70</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>69</v>
@@ -7173,7 +7173,7 @@
         <v>69</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>91</v>
@@ -7236,7 +7236,7 @@
         <v>70</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>69</v>
@@ -7362,7 +7362,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7375,25 +7375,25 @@
         <v>69</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>100</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>69</v>
@@ -7442,7 +7442,7 @@
         <v>69</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>70</v>
@@ -7457,7 +7457,7 @@
         <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>69</v>
@@ -7488,7 +7488,7 @@
         <v>69</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>371</v>
@@ -7521,7 +7521,7 @@
         <v>69</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>373</v>
@@ -7557,7 +7557,7 @@
         <v>69</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>366</v>
@@ -7579,7 +7579,7 @@
         <v>70</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>69</v>
@@ -7654,13 +7654,13 @@
         <v>70</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>366</v>
@@ -7682,7 +7682,7 @@
         <v>70</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>69</v>
@@ -7757,13 +7757,13 @@
         <v>70</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>366</v>
@@ -7785,7 +7785,7 @@
         <v>70</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>69</v>
@@ -7860,13 +7860,13 @@
         <v>70</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>366</v>
@@ -7888,7 +7888,7 @@
         <v>70</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>69</v>
@@ -7900,7 +7900,7 @@
         <v>69</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>387</v>
@@ -7963,13 +7963,13 @@
         <v>70</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>69</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>94</v>
@@ -8074,7 +8074,7 @@
         <v>69</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>94</v>

--- a/docs/StructureDefinition-location.xlsx
+++ b/docs/StructureDefinition-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
